--- a/xls/itemsUse.xlsx
+++ b/xls/itemsUse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@消耗品" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,30 +39,10 @@
     <t>欧元</t>
   </si>
   <si>
-    <t>addValue[.][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>增加值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>体力:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧元:2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验:3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addType[.$][funcInt]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一叠欧元</t>
   </si>
   <si>
@@ -72,13 +52,6 @@
     <t>声望牌</t>
   </si>
   <si>
-    <t>声望</t>
-  </si>
-  <si>
-    <t>声望:4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小经验书</t>
   </si>
   <si>
@@ -89,6 +62,54 @@
   </si>
   <si>
     <t>消耗品:itemsUseConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力:bodyPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元:gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验:exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addValue[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPropName[.$][funcStr]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -139,10 +160,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -515,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -533,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -550,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -563,8 +585,8 @@
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="2">
-        <v>50</v>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -572,13 +594,13 @@
         <v>102002</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2">
-        <v>10000</v>
+        <v>17</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,13 +608,13 @@
         <v>102003</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>100000</v>
+      <c r="D5" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -600,13 +622,13 @@
         <v>102004</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="2">
-        <v>200</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -614,13 +636,13 @@
         <v>102005</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1000</v>
+        <v>12</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,23 +650,89 @@
         <v>102006</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20000</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D31" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C43">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C43 C3:C31">
       <formula1>"体力,欧元,经验"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C6">
-      <formula1>"体力,欧元,经验,声望"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -656,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,29 +758,27 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">

--- a/xls/itemsUse.xlsx
+++ b/xls/itemsUse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="3960" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="@消耗品" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,10 +69,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧元:gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>经验:exp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,26 @@
   </si>
   <si>
     <t>addPropName[.$][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元:euro</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +164,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -156,15 +172,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -539,8 +573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -555,10 +589,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -586,7 +620,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -597,10 +631,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -614,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -628,7 +662,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -642,7 +676,7 @@
         <v>12</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -656,14 +690,36 @@
         <v>12</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D9" s="3"/>
+      <c r="A9" s="2">
+        <v>102007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D10" s="3"/>
+      <c r="A10" s="2">
+        <v>102008</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D11" s="3"/>
@@ -731,7 +787,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32:C43 C3:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C43 C3:C10">
       <formula1>"体力,欧元,经验"</formula1>
     </dataValidation>
   </dataValidations>
@@ -744,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,13 +823,13 @@
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1"/>
     </row>

--- a/xls/itemsUse.xlsx
+++ b/xls/itemsUse.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="4890" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="6615" yWindow="570" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="@消耗品" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,14 +58,83 @@
     <t>大经验书</t>
   </si>
   <si>
+    <t>消耗品:itemsUseConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体力:bodyPower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addValue[.][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addPropName[.$][funcStr]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级经验书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧元:euro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大亲密丹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>经验</t>
-  </si>
-  <si>
-    <t>消耗品:itemsUseConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体力:bodyPower</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -73,59 +142,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>欧元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addValue[.][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addPropName[.$][funcStr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中经验书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超级经验书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+5000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欧元:euro</t>
+    <t>好感度:feeling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好感度</t>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密附魔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,6 +191,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -191,12 +237,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -205,74 +260,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -285,14 +272,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -327,7 +314,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -362,7 +349,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -573,13 +560,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="26.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="26.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="26.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
@@ -589,17 +578,17 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
@@ -610,137 +599,172 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="6">
         <v>102001</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="6">
         <v>102002</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>102003</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>102004</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>102005</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>102006</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>102031</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>102032</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>102034</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>102035</v>
+      </c>
+      <c r="B12" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>102007</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>102008</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D13" s="3"/>
+      <c r="A13" s="4">
+        <v>102036</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D17" s="3"/>
+      <c r="A14" s="4">
+        <v>102037</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D18" s="3"/>
@@ -786,9 +810,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C43 C3:C10">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C10 C18:C43">
       <formula1>"体力,欧元,经验"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C14 C11">
+      <formula1>"体力,欧元,经验,好感度"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -800,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -814,27 +841,29 @@
   <sheetData>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
